--- a/src/Components/Assets/Excels/courses_teachers.xlsx
+++ b/src/Components/Assets/Excels/courses_teachers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>cours</t>
   </si>
@@ -32,9 +32,6 @@
     <t>section</t>
   </si>
   <si>
-    <t>option</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>sedidia</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>françcais</t>
   </si>
   <si>
@@ -81,6 +75,15 @@
   </si>
   <si>
     <t>bac3</t>
+  </si>
+  <si>
+    <t>filiere</t>
+  </si>
+  <si>
+    <t>isc</t>
+  </si>
+  <si>
+    <t>dates</t>
   </si>
 </sst>
 </file>
@@ -142,17 +145,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="cours"/>
     <tableColumn id="2" name="section"/>
-    <tableColumn id="3" name="option"/>
+    <tableColumn id="3" name="filiere"/>
     <tableColumn id="4" name="promotion"/>
     <tableColumn id="5" name="teacherNumber"/>
     <tableColumn id="6" name="teacherName"/>
     <tableColumn id="7" name="semester"/>
     <tableColumn id="8" name="activeDate"/>
+    <tableColumn id="12" name="dates"/>
     <tableColumn id="9" name="classId"/>
     <tableColumn id="10" name="className"/>
     <tableColumn id="11" name="univId"/>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +449,7 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,136 +457,103 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>977077792</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>977077791</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>977077792</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>977077792</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>977077793</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Components/Assets/Excels/courses_teachers.xlsx
+++ b/src/Components/Assets/Excels/courses_teachers.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
